--- a/media/excel/data.xlsx
+++ b/media/excel/data.xlsx
@@ -412,6 +412,35 @@
         <v>老王</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4" t="str">
+        <v>test</v>
+      </c>
+      <c r="C4" t="str">
+        <v>test</v>
+      </c>
+      <c r="D4" t="str">
+        <v>22@qq.com</v>
+      </c>
+      <c r="E4" t="str">
+        <v>18867777777</v>
+      </c>
+      <c r="F4" t="str">
+        <v>男</v>
+      </c>
+      <c r="G4" t="str">
+        <v>正常</v>
+      </c>
+      <c r="H4" t="str">
+        <v>XX创新科技</v>
+      </c>
+      <c r="I4" t="str">
+        <v>老王</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
